--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -526,7 +526,7 @@
         <v>440</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         <v>440</v>
       </c>
       <c r="F3" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         <v>440</v>
       </c>
       <c r="F4" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>440</v>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>440</v>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -243,7 +243,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,7 +333,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>5</v>
@@ -380,7 +380,7 @@
         <v>5</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>5</v>
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>5</v>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>5</v>
@@ -483,7 +483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>5</v>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -243,7 +243,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>5</v>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -125,6 +125,48 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000095662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000080826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат" (Тандер), 45%, кг , в/у </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000086542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат" (Окей), 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат" (Метро), 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат" (Перекресток), 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000086159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат" (Дикси), 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Глобус", 45%, кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000090511</t>
   </si>
 </sst>
 </file>
@@ -134,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,9 +202,16 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,13 +263,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -240,18 +301,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,7 +359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -342,7 +406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -389,7 +453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -436,7 +500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -530,7 +594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -577,9 +641,338 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000090511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "Умалат", 45%, 0,28 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006396</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,10 +307,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,7 +929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -945,7 +951,7 @@
       <c r="G14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -968,6 +974,53 @@
       </c>
       <c r="O14" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00006396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский "ВкусВилл", 45%, 0,28 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006405</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +217,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -269,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,6 +303,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -307,10 +324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -976,7 +993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1021,6 +1038,53 @@
       </c>
       <c r="O15" s="4" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -335,7 +335,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -625,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>20</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>35</v>
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>20</v>
@@ -1125,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>20</v>
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>20</v>
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>267</v>
+        <v>400</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>20</v>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -209,6 +209,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00009020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский со сванской солью "Умалат", 40%, 0,28 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кавказский с аджикой "Умалат", 40%, 0,28 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012624</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,6 +259,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,6 +331,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -332,13 +354,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.55"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1335,6 +1360,106 @@
       </c>
       <c r="P20" s="2" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Четук "Умалат", 45%, 0,28 кг, в/у (кор)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012622</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,6 +263,13 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -316,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,6 +350,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,10 +371,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1460,6 +1477,56 @@
       </c>
       <c r="P22" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>480</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/adygea.xlsx
+++ b/app/data/static/params/adygea.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеретинский "Умалат", 45%, 1,4 кг, в/у </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеретинский "Умалат", 45%, 0,28 кг, в/у</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013833</t>
   </si>
 </sst>
 </file>
@@ -350,8 +362,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -371,10 +383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22:A23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1525,8 +1537,108 @@
       <c r="O23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="4" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
